--- a/views/report/_resumerep.xlsx
+++ b/views/report/_resumerep.xlsx
@@ -20,7 +20,7 @@
     <t>No</t>
   </si>
   <si>
-    <t>UserID</t>
+    <t>PIN</t>
   </si>
   <si>
     <t>Nama</t>
@@ -141,7 +141,7 @@
   <dimension ref="A2:I2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
